--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -246,7 +246,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>時間範囲指定された上限下限量</t>
+    <t>範囲指定された時間の上限下限</t>
   </si>
   <si>
     <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -249,7 +249,7 @@
     <t>範囲指定された時間の上限下限</t>
   </si>
   <si>
-    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。Low,Highの値は時間の単位当てはめる。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはRange DataTypeに対して、薬剤量の上限下限に関する定義を行なったものである</t>
+    <t>このデータタイプはRange DataTypeに対して、時間の上限下限に関する定義を行なったものである</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -447,7 +447,7 @@
 </t>
   </si>
   <si>
-    <t>UCUMを識別するURL。</t>
+    <t>UCUMを識別するURL</t>
   </si>
   <si>
     <t>UCUMを識別するURL。固定値。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -254,10 +257,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
   </si>
   <si>
     <t>NR and also possibly SN (but see also quantity)</t>
@@ -778,55 +777,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -886,214 +885,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>81</v>
@@ -1108,23 +1107,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>85</v>
@@ -1138,68 +1137,68 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>89</v>
@@ -1215,19 +1214,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>92</v>
@@ -1243,38 +1242,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>96</v>
@@ -1283,7 +1282,7 @@
         <v>97</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>98</v>
@@ -1292,19 +1291,19 @@
         <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>89</v>
@@ -1316,20 +1315,20 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>102</v>
@@ -1348,62 +1347,62 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>107</v>
@@ -1421,23 +1420,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>85</v>
@@ -1451,68 +1450,68 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>89</v>
@@ -1528,19 +1527,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>92</v>
@@ -1556,38 +1555,38 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>96</v>
@@ -1596,7 +1595,7 @@
         <v>97</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>98</v>
@@ -1605,19 +1604,19 @@
         <v>99</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>89</v>
@@ -1629,20 +1628,20 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>102</v>
@@ -1663,62 +1662,62 @@
         <v>115</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>107</v>
@@ -1736,17 +1735,17 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>102</v>
@@ -1768,28 +1767,28 @@
         <v>123</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>124</v>
       </c>
       <c r="Q9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>125</v>
@@ -1801,31 +1800,31 @@
         <v>127</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>107</v>
@@ -1843,20 +1842,20 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>102</v>
@@ -1875,62 +1874,62 @@
         <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>107</v>
@@ -1948,20 +1947,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>102</v>
@@ -1980,26 +1979,26 @@
         <v>142</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
         <v>143</v>
@@ -2009,25 +2008,25 @@
         <v>144</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>84</v>
@@ -2051,20 +2050,20 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>102</v>
@@ -2085,26 +2084,26 @@
         <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>143</v>
@@ -2114,31 +2113,31 @@
         <v>144</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>107</v>
@@ -2156,20 +2155,20 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>102</v>
@@ -2188,62 +2187,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>107</v>
@@ -2261,23 +2260,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>85</v>
@@ -2291,68 +2290,68 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>89</v>
@@ -2368,19 +2367,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>92</v>
@@ -2396,38 +2395,38 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>96</v>
@@ -2436,7 +2435,7 @@
         <v>97</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>98</v>
@@ -2445,19 +2444,19 @@
         <v>99</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>89</v>
@@ -2469,20 +2468,20 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>102</v>
@@ -2503,62 +2502,62 @@
         <v>115</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>107</v>
@@ -2576,17 +2575,17 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>102</v>
@@ -2608,28 +2607,28 @@
         <v>123</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>124</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>125</v>
@@ -2641,31 +2640,31 @@
         <v>127</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>107</v>
@@ -2683,20 +2682,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>102</v>
@@ -2715,62 +2714,62 @@
         <v>134</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>107</v>
@@ -2788,20 +2787,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>102</v>
@@ -2820,26 +2819,26 @@
         <v>142</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>143</v>
@@ -2849,25 +2848,25 @@
         <v>144</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>84</v>
@@ -2891,20 +2890,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>102</v>
@@ -2925,26 +2924,26 @@
         <v>152</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>143</v>
@@ -2954,31 +2953,31 @@
         <v>144</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>107</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="168">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2022-10-31</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,12 +455,6 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
-  </si>
-  <si>
     <t>Quantity.system</t>
   </si>
   <si>
@@ -484,6 +478,12 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2001,29 +2001,31 @@
         <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2032,7 +2034,7 @@
         <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>107</v>
@@ -2041,12 +2043,12 @@
         <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2072,16 +2074,16 @@
         <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
@@ -2106,11 +2108,11 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>75</v>
@@ -2841,29 +2843,31 @@
         <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="X19" s="2"/>
-      <c r="Y19" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -2872,7 +2876,7 @@
         <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>107</v>
@@ -2881,7 +2885,7 @@
         <v>136</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -2912,16 +2916,16 @@
         <v>120</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -2946,11 +2950,11 @@
         <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="169">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -835,7 +838,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -845,42 +848,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="140.296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.0859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="44.546875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="94.8359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="44.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -995,138 +998,144 @@
       <c r="AK1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>82</v>
       </c>
+      <c r="AL2" t="s" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>86</v>
@@ -1134,102 +1143,105 @@
       <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>93</v>
@@ -1240,98 +1252,101 @@
       <c r="M4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>103</v>
@@ -1345,67 +1360,67 @@
       <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>108</v>
@@ -1413,33 +1428,36 @@
       <c r="AK5" t="s" s="2">
         <v>109</v>
       </c>
+      <c r="AL5" t="s" s="2">
+        <v>110</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>86</v>
@@ -1447,102 +1465,105 @@
       <c r="L6" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>93</v>
@@ -1553,208 +1574,214 @@
       <c r="M7" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N8" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>118</v>
       </c>
+      <c r="AL8" t="s" s="2">
+        <v>119</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>121</v>
@@ -1762,36 +1789,36 @@
       <c r="L9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>123</v>
       </c>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="Q9" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
         <v>126</v>
@@ -1800,173 +1827,179 @@
         <v>127</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>130</v>
       </c>
+      <c r="AL9" t="s" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>134</v>
       </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>137</v>
       </c>
+      <c r="AL10" t="s" s="2">
+        <v>138</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>140</v>
@@ -1974,107 +2007,110 @@
       <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>142</v>
       </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>148</v>
@@ -2086,100 +2122,103 @@
         <v>150</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>152</v>
       </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>137</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>157</v>
@@ -2187,101 +2226,104 @@
       <c r="M13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>160</v>
       </c>
+      <c r="AL13" t="s" s="2">
+        <v>161</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>86</v>
@@ -2289,102 +2331,105 @@
       <c r="L14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>93</v>
@@ -2395,208 +2440,214 @@
       <c r="M15" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>118</v>
       </c>
+      <c r="AL16" t="s" s="2">
+        <v>119</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>121</v>
@@ -2604,36 +2655,36 @@
       <c r="L17" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>123</v>
       </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>126</v>
@@ -2642,173 +2693,179 @@
         <v>127</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>130</v>
       </c>
+      <c r="AL17" t="s" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>134</v>
       </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>137</v>
       </c>
+      <c r="AL18" t="s" s="2">
+        <v>138</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>140</v>
@@ -2816,107 +2873,110 @@
       <c r="L19" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>142</v>
       </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>148</v>
@@ -2928,69 +2988,72 @@
         <v>150</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>152</v>
       </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>154</v>
+        <v>137</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>範囲指定された時間の上限下限</t>
@@ -1030,16 +1034,16 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1098,24 +1102,24 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1126,7 +1130,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1138,13 +1142,13 @@
         <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1195,13 +1199,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1213,19 +1217,19 @@
         <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1244,16 +1248,16 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1291,19 +1295,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1315,21 +1319,21 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1340,7 +1344,7 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
@@ -1349,19 +1353,19 @@
         <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1411,33 +1415,33 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1448,7 +1452,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -1460,13 +1464,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1517,13 +1521,13 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
@@ -1535,19 +1539,19 @@
         <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1566,16 +1570,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1613,19 +1617,19 @@
         <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -1637,21 +1641,21 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1662,7 +1666,7 @@
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -1671,22 +1675,22 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>76</v>
@@ -1735,33 +1739,33 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1778,29 +1782,29 @@
         <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R9" t="s" s="2">
         <v>76</v>
@@ -1821,13 +1825,13 @@
         <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>76</v>
@@ -1845,33 +1849,33 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1882,7 +1886,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -1891,20 +1895,20 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -1953,33 +1957,33 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1990,7 +1994,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -1999,20 +2003,20 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2061,33 +2065,33 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2098,7 +2102,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2107,22 +2111,22 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2147,11 +2151,11 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2169,33 +2173,33 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2206,7 +2210,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2215,19 +2219,19 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2277,33 +2281,33 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2314,7 +2318,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2326,13 +2330,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2383,13 +2387,13 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
@@ -2401,19 +2405,19 @@
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2432,16 +2436,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2479,19 +2483,19 @@
         <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2503,21 +2507,21 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2528,7 +2532,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -2537,22 +2541,22 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -2601,33 +2605,33 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2644,29 +2648,29 @@
         <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>76</v>
@@ -2687,13 +2691,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -2711,33 +2715,33 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2748,7 +2752,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -2757,20 +2761,20 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -2819,33 +2823,33 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2856,7 +2860,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -2865,20 +2869,20 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -2927,33 +2931,33 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2964,7 +2968,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -2973,22 +2977,22 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3013,11 +3017,11 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3035,25 +3039,25 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="169">
   <si>
     <t>Property</t>
   </si>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>範囲指定された時間の上限下限</t>
@@ -1034,16 +1030,16 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1102,24 +1098,24 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1130,25 +1126,25 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1199,37 +1195,37 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1248,16 +1244,16 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1295,19 +1291,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1319,21 +1315,21 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1344,7 +1340,7 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
@@ -1353,19 +1349,19 @@
         <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1415,33 +1411,33 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AK5" t="s" s="2">
+      <c r="AL5" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1452,25 +1448,25 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1521,37 +1517,37 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1570,16 +1566,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1617,19 +1613,19 @@
         <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AC7" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AC7" t="s" s="2">
+      <c r="AD7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AD7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE7" t="s" s="2">
+      <c r="AF7" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -1641,21 +1637,21 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1666,7 +1662,7 @@
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -1675,22 +1671,22 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>76</v>
@@ -1739,33 +1735,33 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK8" t="s" s="2">
+      <c r="AL8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1782,100 +1778,100 @@
         <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="P9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="P9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q9" t="s" s="2">
+      <c r="R9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="R9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X9" t="s" s="2">
+      <c r="Y9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="Z9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="Z9" t="s" s="2">
+      <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK9" t="s" s="2">
+      <c r="AL9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1886,29 +1882,29 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="L10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -1957,33 +1953,33 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK10" t="s" s="2">
+      <c r="AL10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1994,7 +1990,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2003,20 +1999,20 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2065,33 +2061,33 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI11" t="s" s="2">
+      <c r="AJ11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2102,7 +2098,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2111,22 +2107,22 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2151,55 +2147,55 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF12" t="s" s="2">
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2210,7 +2206,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2219,19 +2215,19 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2281,33 +2277,33 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2318,25 +2314,25 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2387,37 +2383,37 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2436,16 +2432,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2483,19 +2479,19 @@
         <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2507,21 +2503,21 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2532,7 +2528,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -2541,22 +2537,22 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -2605,33 +2601,33 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2648,100 +2644,100 @@
         <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q17" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="P17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q17" t="s" s="2">
+      <c r="R17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="R17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2752,29 +2748,29 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="L18" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -2823,33 +2819,33 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2860,7 +2856,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -2869,20 +2865,20 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -2931,33 +2927,33 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI19" t="s" s="2">
+      <c r="AJ19" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2968,7 +2964,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -2977,22 +2973,22 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3017,47 +3013,47 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -282,10 +282,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -305,13 +305,13 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -327,8 +327,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Range.low</t>
@@ -344,13 +344,13 @@
     <t>時間範囲（下限）</t>
   </si>
   <si>
-    <t>The low limit. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the low boundary is not known.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>低制限。境界は包括的です。 / The low limit. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>低要素が欠落している場合、低境界は不明です。 / If the low element is missing, the low boundary is not known.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -373,10 +373,10 @@
 </t>
   </si>
   <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -395,22 +395,22 @@
 </t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
+    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>この文脈で使用することは許可されていません / Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>How the Quantity should be understood and represented.</t>
+    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -431,10 +431,10 @@
     <t>単位時間の単位</t>
   </si>
   <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>ユニットの人間の読み取り可能な形式。 / A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>Quantity.unit</t>
@@ -459,7 +459,7 @@
     <t>UCUMを識別するURL。固定値。</t>
   </si>
   <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
+    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -475,16 +475,16 @@
     <t>Range.low.code</t>
   </si>
   <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>ユニットのコード化された形式 / Coded form of the unit</t>
+  </si>
+  <si>
+    <t>一部のユニット表現システムのユニットのコンピューター処理可能な形式。 / A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -505,10 +505,10 @@
     <t>時間範囲（上限）</t>
   </si>
   <si>
-    <t>The high limit. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the high element is missing, the high boundary is not known.</t>
+    <t>高制限。境界は包括的です。 / The high limit. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>高い要素が欠落している場合、高境界は不明です。 / If the high element is missing, the high boundary is not known.</t>
   </si>
   <si>
     <t>NR.2</t>
@@ -865,7 +865,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="140.296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="226.484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -875,7 +875,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.0859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -127,120 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -657,10 +543,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -842,7 +728,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -853,13 +739,11 @@
   <cols>
     <col min="1" max="1" width="22.73046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="26.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -870,2194 +754,2079 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="44.546875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="94.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>111</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G7" t="s" s="2">
+      <c r="L7" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q9" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y12" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="L15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y20" s="2"/>
-      <c r="Z20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -543,10 +657,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -728,7 +842,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL19"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -739,11 +853,13 @@
   <cols>
     <col min="1" max="1" width="22.73046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="26.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -754,2079 +870,2194 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="44.546875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="94.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AJ1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>59</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>53</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>59</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="P8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>53</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>59</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="P16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>118</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="133">
   <si>
     <t>Property</t>
   </si>
@@ -150,6 +150,10 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:存在する場合、低い値は高よりも低い値を持つものとします / If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
   </si>
   <si>
     <t>NR and also possibly SN (but see also quantity)</t>
@@ -874,21 +878,21 @@
         <v>44</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -899,7 +903,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -911,13 +915,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -968,13 +972,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -986,19 +990,19 @@
         <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1017,16 +1021,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1064,19 +1068,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1088,21 +1092,21 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1113,7 +1117,7 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -1122,19 +1126,19 @@
         <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1184,33 +1188,33 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1221,7 +1225,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1233,13 +1237,13 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1290,13 +1294,13 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
@@ -1308,19 +1312,19 @@
         <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1339,16 +1343,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1386,19 +1390,19 @@
         <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
@@ -1410,21 +1414,21 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1435,7 +1439,7 @@
         <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -1444,22 +1448,22 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>38</v>
@@ -1508,33 +1512,33 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1551,29 +1555,29 @@
         <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>38</v>
@@ -1594,13 +1598,13 @@
         <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>38</v>
@@ -1618,33 +1622,33 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1655,7 +1659,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -1664,20 +1668,20 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -1726,33 +1730,33 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1763,7 +1767,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -1772,20 +1776,20 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -1834,33 +1838,33 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1871,7 +1875,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -1880,22 +1884,22 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>38</v>
@@ -1920,11 +1924,11 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -1942,33 +1946,33 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1979,7 +1983,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -1988,19 +1992,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2050,33 +2054,33 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2087,7 +2091,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2099,13 +2103,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2156,13 +2160,13 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
@@ -2174,19 +2178,19 @@
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2205,16 +2209,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2252,19 +2256,19 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -2276,21 +2280,21 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2301,7 +2305,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2310,22 +2314,22 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -2374,33 +2378,33 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2417,29 +2421,29 @@
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>38</v>
@@ -2460,13 +2464,13 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -2484,33 +2488,33 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2521,7 +2525,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -2530,20 +2534,20 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -2592,33 +2596,33 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2629,7 +2633,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -2638,20 +2642,20 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -2700,33 +2704,33 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2737,7 +2741,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -2746,22 +2750,22 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -2786,11 +2790,11 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -2808,25 +2812,25 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -371,7 +371,7 @@
     <t>一部のユニット表現システムのユニットのコンピューター処理可能な形式。 / A computer processable form of the unit in some unit representation system.</t>
   </si>
   <si>
-    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+    <t>優先システムはUCUMですが、独自の単位にはSNOMED-CT、または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="171">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -732,7 +846,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL19"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -743,11 +857,13 @@
   <cols>
     <col min="1" max="1" width="22.73046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="26.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -758,2079 +874,2194 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="44.546875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="94.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>54</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q8" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z11" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>54</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="133">
   <si>
     <t>Property</t>
   </si>
@@ -127,120 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -846,7 +732,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -857,13 +743,11 @@
   <cols>
     <col min="1" max="1" width="22.73046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="26.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -874,2194 +758,2079 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="44.546875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="94.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>112</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O7" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q9" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AJ10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y12" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y20" s="2"/>
-      <c r="Z20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -485,7 +485,7 @@
     <t>一部のユニット表現システムのユニットのコンピューター処理可能な形式。 / A computer processable form of the unit in some unit representation system.</t>
   </si>
   <si>
-    <t>優先システムはUCUMですが、独自の単位にはSNOMED-CT、または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
